--- a/BackTest/2020-01-23 BackTest EOS.xlsx
+++ b/BackTest/2020-01-23 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -5005,10 +5005,14 @@
         <v>-29432.47853176</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>4085</v>
+      </c>
+      <c r="J140" t="n">
+        <v>4085</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
@@ -5038,11 +5042,19 @@
         <v>-27482.27943176</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>4102</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4085</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5083,19 @@
         <v>-29900.24303176</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>4106</v>
+      </c>
+      <c r="J142" t="n">
+        <v>4085</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,10 +5124,14 @@
         <v>-28579.81833176</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>4092</v>
+      </c>
+      <c r="J143" t="n">
+        <v>4092</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
@@ -5137,15 +5161,17 @@
         <v>-28579.81833176</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>4098</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>4092</v>
+      </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L144" t="n">
@@ -5176,15 +5202,17 @@
         <v>-29314.41833176</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>4098</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>4092</v>
+      </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L145" t="n">
@@ -5215,17 +5243,15 @@
         <v>-29074.41833176</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>4095</v>
       </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="n">
+        <v>4095</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5254,15 +5280,17 @@
         <v>-28937.41833176</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>4097</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>4095</v>
+      </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5293,15 +5321,17 @@
         <v>-29410.74543176</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>4102</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>4095</v>
+      </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5332,17 +5362,15 @@
         <v>-29410.74543176</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>4101</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="n">
+        <v>4101</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5371,15 +5399,17 @@
         <v>-29410.74543176</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>4101</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>4101</v>
+      </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5410,15 +5440,17 @@
         <v>-29414.79543176</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>4101</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>4101</v>
+      </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -5449,17 +5481,15 @@
         <v>-18275.69033176</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>4098</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5488,13 +5518,17 @@
         <v>-11813.09363176</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>4102</v>
+      </c>
+      <c r="J153" t="n">
+        <v>4098</v>
+      </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5525,13 +5559,17 @@
         <v>4238.578368240003</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>4124</v>
+      </c>
+      <c r="J154" t="n">
+        <v>4098</v>
+      </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L154" t="n">
@@ -5565,7 +5603,9 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>4098</v>
+      </c>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5602,7 +5642,9 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>4098</v>
+      </c>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5639,7 +5681,9 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>4098</v>
+      </c>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5676,7 +5720,9 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>4098</v>
+      </c>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5713,7 +5759,9 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>4098</v>
+      </c>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5750,7 +5798,9 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>4098</v>
+      </c>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5787,7 +5837,9 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>4098</v>
+      </c>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,7 +5876,9 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>4098</v>
+      </c>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5861,7 +5915,9 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>4098</v>
+      </c>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5898,7 +5954,9 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>4098</v>
+      </c>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5935,7 +5993,9 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>4098</v>
+      </c>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5972,7 +6032,9 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>4098</v>
+      </c>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6009,7 +6071,9 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>4098</v>
+      </c>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6046,7 +6110,9 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>4098</v>
+      </c>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6083,7 +6149,9 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>4098</v>
+      </c>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6120,7 +6188,9 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>4098</v>
+      </c>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6157,7 +6227,9 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>4098</v>
+      </c>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6194,7 +6266,9 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>4098</v>
+      </c>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6231,7 +6305,9 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>4098</v>
+      </c>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6268,7 +6344,9 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>4098</v>
+      </c>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,7 +6383,9 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>4098</v>
+      </c>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6342,7 +6422,9 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>4098</v>
+      </c>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6379,7 +6461,9 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>4098</v>
+      </c>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6416,7 +6500,9 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>4098</v>
+      </c>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6453,7 +6539,9 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>4098</v>
+      </c>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6490,7 +6578,9 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>4098</v>
+      </c>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6527,7 +6617,9 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>4098</v>
+      </c>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6564,7 +6656,9 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>4098</v>
+      </c>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6601,7 +6695,9 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>4098</v>
+      </c>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6638,7 +6734,9 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>4098</v>
+      </c>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6675,7 +6773,9 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>4098</v>
+      </c>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6712,7 +6812,9 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>4098</v>
+      </c>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6749,7 +6851,9 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>4098</v>
+      </c>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6786,7 +6890,9 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>4098</v>
+      </c>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6823,7 +6929,9 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>4098</v>
+      </c>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6860,7 +6968,9 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>4098</v>
+      </c>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6897,7 +7007,9 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>4098</v>
+      </c>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6934,7 +7046,9 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>4098</v>
+      </c>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6971,7 +7085,9 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>4098</v>
+      </c>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7008,7 +7124,9 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>4098</v>
+      </c>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7045,7 +7163,9 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>4098</v>
+      </c>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7082,7 +7202,9 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>4098</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,7 +7241,9 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>4098</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7156,7 +7280,9 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>4098</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7193,7 +7319,9 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>4098</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7230,7 +7358,9 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>4098</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7267,7 +7397,9 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>4098</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7304,7 +7436,9 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>4098</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7341,7 +7475,9 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>4098</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7378,7 +7514,9 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>4098</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7415,7 +7553,9 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>4098</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7452,7 +7592,9 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>4098</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7489,7 +7631,9 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>4098</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7526,7 +7670,9 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>4098</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7563,7 +7709,9 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>4098</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7600,7 +7748,9 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>4098</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7637,7 +7787,9 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>4098</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7674,7 +7826,9 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>4098</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7711,7 +7865,9 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>4098</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,7 +7904,9 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>4098</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7785,7 +7943,9 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>4098</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7822,7 +7982,9 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>4098</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7859,7 +8021,9 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>4098</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7896,7 +8060,9 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>4098</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7933,7 +8099,9 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>4098</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7970,7 +8138,9 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>4098</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8007,7 +8177,9 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>4098</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8044,7 +8216,9 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>4098</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8081,7 +8255,9 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>4098</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8118,7 +8294,9 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>4098</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8155,7 +8333,9 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>4098</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8192,7 +8372,9 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>4098</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8229,7 +8411,9 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>4098</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8266,7 +8450,9 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>4098</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8303,7 +8489,9 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>4098</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8340,7 +8528,9 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>4098</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8377,7 +8567,9 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>4098</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8414,7 +8606,9 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>4098</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8451,7 +8645,9 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>4098</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8488,7 +8684,9 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>4098</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8525,7 +8723,9 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>4098</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,7 +8762,9 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>4098</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,7 +8801,9 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>4098</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8636,7 +8840,9 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>4098</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8673,7 +8879,9 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>4098</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8710,7 +8918,9 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>4098</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8747,7 +8957,9 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>4098</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8784,7 +8996,9 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>4098</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8821,7 +9035,9 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>4098</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,7 +9074,9 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>4098</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8895,7 +9113,9 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>4098</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8932,7 +9152,9 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>4098</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8969,7 +9191,9 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>4098</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9006,7 +9230,9 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>4098</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9043,7 +9269,9 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>4098</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9080,7 +9308,9 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>4098</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9117,7 +9347,9 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>4098</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9154,7 +9386,9 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>4098</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9191,7 +9425,9 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>4098</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9228,7 +9464,9 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>4098</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9265,7 +9503,9 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>4098</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9302,7 +9542,9 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>4098</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,7 +9581,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>4098</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9376,7 +9620,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>4098</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9413,7 +9659,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>4098</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9450,7 +9698,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>4098</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9487,7 +9737,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>4098</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9524,7 +9776,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>4098</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9561,7 +9815,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>4098</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9598,7 +9854,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>4098</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9635,7 +9893,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>4098</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9672,7 +9932,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>4098</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9709,7 +9971,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>4098</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9746,7 +10010,9 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>4098</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9783,7 +10049,9 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>4098</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9820,7 +10088,9 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>4098</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9857,7 +10127,9 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>4098</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9894,7 +10166,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>4098</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9931,7 +10205,9 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>4098</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9968,7 +10244,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>4098</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10005,7 +10283,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>4098</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10042,7 +10322,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>4098</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10079,7 +10361,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>4098</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10116,7 +10400,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>4098</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10153,7 +10439,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>4098</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10190,7 +10478,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>4098</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10227,7 +10517,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>4098</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10264,7 +10556,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>4098</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10301,7 +10595,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>4098</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10338,7 +10634,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>4098</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10375,7 +10673,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>4098</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10412,7 +10712,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>4098</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10449,7 +10751,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>4098</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10486,7 +10790,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>4098</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10523,7 +10829,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>4098</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10560,7 +10868,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>4098</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10597,7 +10907,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>4098</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10634,7 +10946,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>4098</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10671,7 +10985,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>4098</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10708,7 +11024,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>4098</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10745,7 +11063,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>4098</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10782,7 +11102,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>4098</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10819,7 +11141,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>4098</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10856,7 +11180,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>4098</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10893,7 +11219,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>4098</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10930,7 +11258,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>4098</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10967,7 +11297,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>4098</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11004,7 +11336,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>4098</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11041,7 +11375,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>4098</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11078,7 +11414,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>4098</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11115,7 +11453,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>4098</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11149,16 +11489,20 @@
         <v>27337.12946927001</v>
       </c>
       <c r="H306" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>4098</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L306" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
       <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
@@ -11187,8 +11531,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11220,8 +11570,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11253,8 +11609,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11283,11 +11645,17 @@
         <v>27395.01807022001</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11319,8 +11687,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11352,8 +11726,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11385,8 +11765,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11418,8 +11804,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11451,8 +11843,14 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11484,8 +11882,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11517,8 +11921,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11550,8 +11960,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11583,8 +11999,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11616,8 +12038,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11649,8 +12077,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11682,8 +12116,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11715,8 +12155,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11748,8 +12194,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11781,8 +12233,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11814,8 +12272,14 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11847,8 +12311,14 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11880,8 +12350,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11913,8 +12389,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11946,8 +12428,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11979,8 +12467,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12012,8 +12506,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12045,8 +12545,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12078,8 +12584,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12111,8 +12623,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12144,8 +12662,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12177,8 +12701,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12210,8 +12740,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12243,8 +12779,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12276,8 +12818,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12309,8 +12857,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12342,8 +12896,14 @@
         <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12375,8 +12935,14 @@
         <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12405,11 +12971,17 @@
         <v>30107.66004831</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12441,8 +13013,14 @@
         <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12474,8 +13052,14 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12507,8 +13091,14 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12540,8 +13130,14 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12573,8 +13169,14 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12606,8 +13208,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12636,11 +13244,17 @@
         <v>28963.48284831</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12669,11 +13283,17 @@
         <v>28963.48284831</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12702,11 +13322,17 @@
         <v>24019.44894831</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12735,11 +13361,17 @@
         <v>23921.04734831</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12768,11 +13400,17 @@
         <v>21808.38634831</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12804,8 +13442,14 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12837,8 +13481,14 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12870,8 +13520,14 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12903,8 +13559,14 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12936,8 +13598,14 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12969,8 +13637,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -13002,8 +13676,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -13035,8 +13715,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -13068,8 +13754,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -13101,8 +13793,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -13134,8 +13832,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -13167,8 +13871,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -13200,8 +13910,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -13233,8 +13949,14 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -13266,8 +13988,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -13299,8 +14027,14 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -13332,8 +14066,14 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -13365,8 +14105,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -13398,8 +14144,14 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -13431,8 +14183,14 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13464,8 +14222,14 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13497,8 +14261,14 @@
         <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="J377" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13530,8 +14300,14 @@
         <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="J378" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13563,8 +14339,14 @@
         <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="J379" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13596,8 +14378,14 @@
         <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="J380" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13629,8 +14417,14 @@
         <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="J381" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13662,8 +14456,14 @@
         <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13695,8 +14495,14 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13728,8 +14534,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13761,8 +14573,14 @@
         <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13794,8 +14612,14 @@
         <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13827,8 +14651,14 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13860,8 +14690,14 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13893,8 +14729,14 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13926,8 +14768,14 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13959,8 +14807,14 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13992,8 +14846,14 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="J392" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14025,8 +14885,14 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="J393" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14058,8 +14924,14 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="J394" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14091,8 +14963,14 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14124,8 +15002,14 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14157,8 +15041,14 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14190,8 +15080,14 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14223,8 +15119,14 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14256,8 +15158,14 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14289,8 +15197,14 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14322,8 +15236,14 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14355,8 +15275,14 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14388,8 +15314,14 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14421,8 +15353,14 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14454,8 +15392,14 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14487,8 +15431,14 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14520,8 +15470,14 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14553,8 +15509,14 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14586,8 +15548,14 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14619,8 +15587,14 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14652,8 +15626,14 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14685,8 +15665,14 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14718,8 +15704,14 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14751,8 +15743,14 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14784,8 +15782,14 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14817,8 +15821,14 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14850,8 +15860,14 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14883,8 +15899,14 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14916,8 +15938,14 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14949,8 +15977,14 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14982,8 +16016,14 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15015,8 +16055,14 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15048,8 +16094,14 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15081,8 +16133,14 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15114,8 +16172,14 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15147,8 +16211,14 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15180,8 +16250,14 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15213,8 +16289,14 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -15246,8 +16328,14 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -15279,8 +16367,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -15312,8 +16406,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -15345,8 +16445,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -15378,8 +16484,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -15411,8 +16523,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -15444,8 +16562,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -15477,8 +16601,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -15510,8 +16640,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -15543,8 +16679,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15576,8 +16718,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15609,8 +16757,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15642,8 +16796,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15675,8 +16835,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15708,8 +16874,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15741,8 +16913,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15774,8 +16952,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15807,8 +16991,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15840,8 +17030,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15873,8 +17069,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15906,8 +17108,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15939,8 +17147,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15972,8 +17186,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -16005,8 +17225,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -16038,8 +17264,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -16071,8 +17303,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16104,8 +17342,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16137,8 +17381,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16170,8 +17420,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16203,8 +17459,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16236,8 +17498,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16269,8 +17537,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16302,8 +17576,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16335,8 +17615,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16368,8 +17654,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16401,8 +17693,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16434,8 +17732,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16467,8 +17771,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16500,8 +17810,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16533,8 +17849,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16566,8 +17888,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16599,8 +17927,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16632,8 +17966,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16665,8 +18005,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16698,8 +18044,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16731,8 +18083,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16764,8 +18122,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16797,8 +18161,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16830,8 +18200,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16863,8 +18239,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16896,8 +18278,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16929,8 +18317,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16962,8 +18356,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16995,8 +18395,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -17028,8 +18434,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17061,8 +18473,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17094,8 +18512,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17127,8 +18551,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17160,8 +18590,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17193,8 +18629,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17226,8 +18668,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17259,8 +18707,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17292,8 +18746,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17325,8 +18785,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17358,8 +18824,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17391,8 +18863,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17424,8 +18902,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17457,8 +18941,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17490,8 +18980,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17523,8 +19019,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17556,8 +19058,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17589,8 +19097,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17622,8 +19136,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17655,8 +19175,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17688,8 +19214,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17721,8 +19253,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17754,8 +19292,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17787,8 +19331,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17820,8 +19370,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17853,8 +19409,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17886,8 +19448,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17919,8 +19487,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17952,8 +19526,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17985,8 +19565,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18018,8 +19604,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18051,8 +19643,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18084,8 +19682,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18117,8 +19721,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18150,8 +19760,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18183,8 +19799,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18216,8 +19838,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18249,8 +19877,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18279,11 +19913,17 @@
         <v>3949.784737190007</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18315,8 +19955,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18348,8 +19994,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18381,8 +20033,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18414,8 +20072,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18447,8 +20111,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18480,8 +20150,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18513,8 +20189,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18546,8 +20228,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18579,8 +20267,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18612,8 +20306,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18645,8 +20345,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18678,8 +20384,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18711,8 +20423,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18741,11 +20459,17 @@
         <v>15152.12709417001</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18777,8 +20501,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18807,11 +20537,17 @@
         <v>23335.98372735001</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18843,8 +20579,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18876,8 +20618,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18906,11 +20654,17 @@
         <v>22199.05796811001</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18939,11 +20693,17 @@
         <v>22199.05796811001</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18972,11 +20732,17 @@
         <v>22199.05796811001</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19005,11 +20771,17 @@
         <v>21197.31806811001</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19041,8 +20813,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19074,8 +20852,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19107,8 +20891,14 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19140,8 +20930,14 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19173,8 +20969,14 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19206,8 +21008,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19239,8 +21047,14 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19272,8 +21086,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19305,8 +21125,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19338,8 +21164,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19371,8 +21203,14 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19404,8 +21242,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19437,8 +21281,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19470,8 +21320,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19503,8 +21359,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19536,8 +21398,14 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19569,8 +21437,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19602,8 +21476,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19635,8 +21515,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19668,8 +21554,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19701,8 +21593,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19734,8 +21632,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19767,8 +21671,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19800,8 +21710,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19833,8 +21749,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19866,8 +21788,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19899,8 +21827,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19932,8 +21866,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19965,8 +21905,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19998,8 +21944,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20031,8 +21983,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20064,8 +22022,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20097,8 +22061,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20130,8 +22100,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20163,8 +22139,14 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20196,8 +22178,14 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20229,8 +22217,14 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20262,8 +22256,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20295,8 +22295,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20328,8 +22334,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20361,8 +22373,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20394,8 +22412,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20427,8 +22451,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20460,8 +22490,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20493,8 +22529,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20526,8 +22568,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20559,8 +22607,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20592,8 +22646,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20625,8 +22685,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20658,8 +22724,14 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20691,8 +22763,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20724,8 +22802,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20757,8 +22841,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20790,8 +22880,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20823,8 +22919,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20856,8 +22958,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20889,8 +22997,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20922,8 +23036,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20955,8 +23075,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20988,8 +23114,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21021,8 +23153,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21054,8 +23192,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21087,8 +23231,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21120,8 +23270,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21153,8 +23309,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21186,8 +23348,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21219,8 +23387,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21252,8 +23426,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21285,8 +23465,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21318,8 +23504,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21351,8 +23543,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21384,8 +23582,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21417,8 +23621,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21450,8 +23660,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21483,8 +23699,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21516,8 +23738,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21549,8 +23777,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21582,8 +23816,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21615,8 +23855,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21648,8 +23894,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21681,8 +23933,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21714,8 +23972,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21747,8 +24011,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21780,8 +24050,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21813,8 +24089,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21846,8 +24128,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21879,8 +24167,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21912,8 +24206,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21945,8 +24245,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21978,8 +24284,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22011,8 +24323,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22044,8 +24362,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22077,8 +24401,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22107,11 +24437,17 @@
         <v>41598.25350422002</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22143,8 +24479,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22173,11 +24515,17 @@
         <v>37291.32470422002</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22209,8 +24557,14 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22239,11 +24593,17 @@
         <v>35449.05190422002</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22275,8 +24635,14 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -22305,11 +24671,17 @@
         <v>37087.06236558002</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -22338,11 +24710,17 @@
         <v>33266.26066558002</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -22371,11 +24749,17 @@
         <v>33266.59816558002</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -22407,8 +24791,14 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -22440,8 +24830,14 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -22473,8 +24869,14 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -22506,8 +24908,14 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -22539,8 +24947,14 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -22572,8 +24986,14 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -22602,11 +25022,17 @@
         <v>37459.99468084002</v>
       </c>
       <c r="H653" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22638,8 +25064,14 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -22671,8 +25103,14 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -22701,11 +25139,17 @@
         <v>41391.82618084002</v>
       </c>
       <c r="H656" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22734,11 +25178,17 @@
         <v>54091.12378084002</v>
       </c>
       <c r="H657" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -22767,11 +25217,17 @@
         <v>69219.21891052002</v>
       </c>
       <c r="H658" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -22800,11 +25256,17 @@
         <v>117600.35031052</v>
       </c>
       <c r="H659" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -22833,11 +25295,17 @@
         <v>126881.76711052</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -22866,11 +25334,17 @@
         <v>117930.88274236</v>
       </c>
       <c r="H661" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -22899,11 +25373,17 @@
         <v>118775.98274236</v>
       </c>
       <c r="H662" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22932,11 +25412,17 @@
         <v>122196.23004236</v>
       </c>
       <c r="H663" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -22965,11 +25451,17 @@
         <v>120406.80424236</v>
       </c>
       <c r="H664" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -22998,11 +25490,17 @@
         <v>124421.65654236</v>
       </c>
       <c r="H665" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23031,11 +25529,17 @@
         <v>128933.21994236</v>
       </c>
       <c r="H666" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23067,8 +25571,14 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23097,11 +25607,17 @@
         <v>126729.17817074</v>
       </c>
       <c r="H668" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23133,8 +25649,14 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23166,8 +25688,14 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23199,8 +25727,14 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23232,8 +25766,14 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23262,11 +25802,17 @@
         <v>130405.58480693</v>
       </c>
       <c r="H673" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23298,8 +25844,14 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23331,8 +25883,14 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23364,8 +25922,14 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -23394,13 +25958,19 @@
         <v>111619.6706285</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>4098</v>
+      </c>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L677" t="n">
-        <v>1</v>
+        <v>1.029651049292338</v>
       </c>
       <c r="M677" t="inlineStr"/>
     </row>
@@ -23427,7 +25997,7 @@
         <v>99164.14522850003</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -23460,7 +26030,7 @@
         <v>106875.9131285</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -23493,7 +26063,7 @@
         <v>93968.80362850003</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -23526,7 +26096,7 @@
         <v>97729.83142850002</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -23559,7 +26129,7 @@
         <v>96172.59952850002</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -23592,7 +26162,7 @@
         <v>94402.61622850002</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -23625,7 +26195,7 @@
         <v>94656.75382850002</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -23658,7 +26228,7 @@
         <v>78489.40502850001</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -23691,7 +26261,7 @@
         <v>80489.40502850001</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -23724,7 +26294,7 @@
         <v>79839.07142850001</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -23757,7 +26327,7 @@
         <v>80920.84152850001</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -23790,7 +26360,7 @@
         <v>77911.30539451001</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -23823,7 +26393,7 @@
         <v>81497.87169451002</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -23856,7 +26426,7 @@
         <v>81520.64679451002</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -23889,7 +26459,7 @@
         <v>81512.72398397002</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24054,7 +26624,7 @@
         <v>70569.03869751001</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -24120,7 +26690,7 @@
         <v>74769.67869751001</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -24153,7 +26723,7 @@
         <v>79541.10429751001</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -24351,7 +26921,7 @@
         <v>84580.58149751001</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24417,7 +26987,7 @@
         <v>82990.37099751001</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24450,7 +27020,7 @@
         <v>82987.00599751</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24483,7 +27053,7 @@
         <v>82962.43779751001</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -24516,7 +27086,7 @@
         <v>82967.25209751001</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -24615,7 +27185,7 @@
         <v>82143.78886314</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -24648,7 +27218,7 @@
         <v>82025.13196314</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -24681,7 +27251,7 @@
         <v>82011.72106313999</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24714,7 +27284,7 @@
         <v>83039.69016314</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25209,7 +27779,7 @@
         <v>87839.77796314</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25374,7 +27944,7 @@
         <v>91142.19772877</v>
       </c>
       <c r="H737" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -25440,7 +28010,7 @@
         <v>95795.89712877</v>
       </c>
       <c r="H739" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -25473,7 +28043,7 @@
         <v>95696.54212877</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -25506,7 +28076,7 @@
         <v>101278.41632877</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -25539,7 +28109,7 @@
         <v>101278.41632877</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -25572,7 +28142,7 @@
         <v>101278.41632877</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -25770,7 +28340,7 @@
         <v>99071.46042877002</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25803,7 +28373,7 @@
         <v>99071.46042877002</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25836,7 +28406,7 @@
         <v>104078.78182877</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25869,7 +28439,7 @@
         <v>100893.09132877</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25902,7 +28472,7 @@
         <v>100717.20132877</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -27618,7 +30188,7 @@
         <v>94249.43636753</v>
       </c>
       <c r="H805" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -27651,7 +30221,7 @@
         <v>88189.40926752999</v>
       </c>
       <c r="H806" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -27684,7 +30254,7 @@
         <v>88226.92926752999</v>
       </c>
       <c r="H807" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -27717,7 +30287,7 @@
         <v>88226.92926752999</v>
       </c>
       <c r="H808" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -27750,7 +30320,7 @@
         <v>87689.99586753</v>
       </c>
       <c r="H809" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -27783,7 +30353,7 @@
         <v>87968.48306753</v>
       </c>
       <c r="H810" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -27816,7 +30386,7 @@
         <v>90651.46626753001</v>
       </c>
       <c r="H811" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -27849,7 +30419,7 @@
         <v>90633.97626753</v>
       </c>
       <c r="H812" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -27882,7 +30452,7 @@
         <v>88292.96066753</v>
       </c>
       <c r="H813" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -27915,7 +30485,7 @@
         <v>86792.35936753001</v>
       </c>
       <c r="H814" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -27948,7 +30518,7 @@
         <v>86797.22436753001</v>
       </c>
       <c r="H815" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -27981,7 +30551,7 @@
         <v>86688.29566753001</v>
       </c>
       <c r="H816" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -28311,7 +30881,7 @@
         <v>84731.19456753001</v>
       </c>
       <c r="H826" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -29235,7 +31805,7 @@
         <v>83016.09143832003</v>
       </c>
       <c r="H854" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29697,7 +32267,7 @@
         <v>79508.48833832004</v>
       </c>
       <c r="H868" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29730,7 +32300,7 @@
         <v>79861.64235878004</v>
       </c>
       <c r="H869" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29763,7 +32333,7 @@
         <v>79854.56215878004</v>
       </c>
       <c r="H870" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29829,7 +32399,7 @@
         <v>85238.81923020004</v>
       </c>
       <c r="H872" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
@@ -29862,7 +32432,7 @@
         <v>84136.07123020003</v>
       </c>
       <c r="H873" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -29961,7 +32531,7 @@
         <v>84957.15613020003</v>
       </c>
       <c r="H876" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -29994,7 +32564,7 @@
         <v>84957.15613020003</v>
       </c>
       <c r="H877" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30027,7 +32597,7 @@
         <v>84637.04883020003</v>
       </c>
       <c r="H878" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30060,7 +32630,7 @@
         <v>84637.04883020003</v>
       </c>
       <c r="H879" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30093,7 +32663,7 @@
         <v>84684.84997742003</v>
       </c>
       <c r="H880" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30126,7 +32696,7 @@
         <v>84675.37187742004</v>
       </c>
       <c r="H881" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30159,7 +32729,7 @@
         <v>84690.47147742004</v>
       </c>
       <c r="H882" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30192,7 +32762,7 @@
         <v>82774.78097742004</v>
       </c>
       <c r="H883" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30225,7 +32795,7 @@
         <v>82459.58597742004</v>
       </c>
       <c r="H884" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
@@ -30258,7 +32828,7 @@
         <v>81200.22147742004</v>
       </c>
       <c r="H885" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30291,7 +32861,7 @@
         <v>80451.07667742005</v>
       </c>
       <c r="H886" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -31050,7 +33620,7 @@
         <v>85761.94726327006</v>
       </c>
       <c r="H909" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
@@ -31083,7 +33653,7 @@
         <v>87761.94726327006</v>
       </c>
       <c r="H910" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
@@ -31116,7 +33686,7 @@
         <v>85837.65316327006</v>
       </c>
       <c r="H911" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
@@ -31149,7 +33719,7 @@
         <v>85712.87446327007</v>
       </c>
       <c r="H912" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
@@ -31182,7 +33752,7 @@
         <v>85712.87446327007</v>
       </c>
       <c r="H913" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
@@ -31215,7 +33785,7 @@
         <v>82554.71906327007</v>
       </c>
       <c r="H914" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
@@ -31248,7 +33818,7 @@
         <v>82604.71906327007</v>
       </c>
       <c r="H915" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
@@ -31281,7 +33851,7 @@
         <v>82604.71906327007</v>
       </c>
       <c r="H916" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
@@ -31314,7 +33884,7 @@
         <v>83163.69826327007</v>
       </c>
       <c r="H917" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
@@ -31347,7 +33917,7 @@
         <v>83163.69826327007</v>
       </c>
       <c r="H918" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
@@ -31380,7 +33950,7 @@
         <v>83113.69826327007</v>
       </c>
       <c r="H919" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
@@ -31413,7 +33983,7 @@
         <v>84142.70136327007</v>
       </c>
       <c r="H920" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
@@ -31446,7 +34016,7 @@
         <v>84140.19956327007</v>
       </c>
       <c r="H921" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
@@ -31479,7 +34049,7 @@
         <v>84608.27326327006</v>
       </c>
       <c r="H922" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
@@ -31512,7 +34082,7 @@
         <v>84608.27326327006</v>
       </c>
       <c r="H923" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
@@ -31545,7 +34115,7 @@
         <v>84198.26186327006</v>
       </c>
       <c r="H924" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
@@ -31578,7 +34148,7 @@
         <v>84198.26186327006</v>
       </c>
       <c r="H925" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
@@ -31611,7 +34181,7 @@
         <v>85186.38956327006</v>
       </c>
       <c r="H926" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
@@ -31644,7 +34214,7 @@
         <v>85186.38956327006</v>
       </c>
       <c r="H927" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
@@ -31677,7 +34247,7 @@
         <v>80738.26176327006</v>
       </c>
       <c r="H928" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
@@ -31710,7 +34280,7 @@
         <v>80036.88976327005</v>
       </c>
       <c r="H929" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
@@ -31743,7 +34313,7 @@
         <v>80039.88976327005</v>
       </c>
       <c r="H930" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
@@ -31776,7 +34346,7 @@
         <v>79863.61446327006</v>
       </c>
       <c r="H931" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
@@ -31809,7 +34379,7 @@
         <v>79863.61446327006</v>
       </c>
       <c r="H932" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
@@ -31842,7 +34412,7 @@
         <v>80942.86376327006</v>
       </c>
       <c r="H933" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
@@ -33635,6 +36205,6 @@
       <c r="M987" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>